--- a/Confra_EC_2026_Modelo_Perguntas.xlsx
+++ b/Confra_EC_2026_Modelo_Perguntas.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_295CC13F5363F4DEE471D81457B8B6FFE832B6DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6F224F-B1CA-4209-9A28-FDD3FC26359A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A7CDE6-6540-4F9F-8F63-60EEC938C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perguntas" sheetId="1" r:id="rId1"/>
@@ -81,9 +86,6 @@
     <t>Bruna Michele (Licenciamento)</t>
   </si>
   <si>
-    <t xml:space="preserve">Larissa Leite Helena (G&amp;G) </t>
-  </si>
-  <si>
     <t xml:space="preserve">3 - Quem abriu mais chamados em SIG? </t>
   </si>
   <si>
@@ -265,13 +267,16 @@
   </si>
   <si>
     <t>Capitão América</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larissa Leite (G&amp;G) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,18 +623,19 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -683,95 +689,95 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>25312</v>
@@ -786,12 +792,12 @@
         <v>16576</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
         <v>29961</v>
@@ -806,32 +812,32 @@
         <v>9729</v>
       </c>
       <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>47</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -849,69 +855,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>63</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -926,12 +932,12 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>1.37</v>
@@ -949,9 +955,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -969,9 +975,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>23</v>
@@ -986,12 +992,12 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4">
         <v>45916</v>
@@ -1006,44 +1012,44 @@
         <v>45932</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
